--- a/tables/Supplementary Table S5.xlsx
+++ b/tables/Supplementary Table S5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kkaji\Desktop\Kacie\UH Manoa\BOT 499 Code\hakalau\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD4617DB-24CC-4111-A769-B8D34EA11F9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C933CAF5-1159-4FEF-A2B1-5C0393902511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{2805C04B-55ED-40BC-B79E-13B139CACB0A}"/>
   </bookViews>
@@ -36,22 +36,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="120">
   <si>
-    <t>A. koa</t>
-  </si>
-  <si>
-    <t>C. trigynum</t>
-  </si>
-  <si>
     <t>Grass</t>
-  </si>
-  <si>
-    <t>M. polymorpha</t>
-  </si>
-  <si>
-    <t>M. lessertiana</t>
-  </si>
-  <si>
-    <t>R. hawaiensis</t>
   </si>
   <si>
     <t>Remnant</t>
@@ -462,6 +447,21 @@
       </rPr>
       <t xml:space="preserve">-test could not be performed due to low sample occupancy. </t>
     </r>
+  </si>
+  <si>
+    <t>Acacia koa</t>
+  </si>
+  <si>
+    <t>Cheirodendron trigynum</t>
+  </si>
+  <si>
+    <t>Metrosideros polymorpha</t>
+  </si>
+  <si>
+    <t>Myrsine lessertiana</t>
+  </si>
+  <si>
+    <t>Rubus hawaiensis</t>
   </si>
 </sst>
 </file>
@@ -571,16 +571,7 @@
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -597,6 +588,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -915,7 +915,7 @@
   <dimension ref="A1:U16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -964,21 +964,21 @@
     </row>
     <row r="2" spans="1:21" ht="65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
-      <c r="B2" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
+      <c r="B2" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
@@ -1012,643 +1012,643 @@
     </row>
     <row r="4" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="4" t="s">
+      <c r="B4" s="2"/>
+      <c r="C4" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
       <c r="U4" s="1"/>
     </row>
     <row r="5" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="N5" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="R5" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="S5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="T5" s="7" t="s">
-        <v>8</v>
+      <c r="B5" s="3"/>
+      <c r="C5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="T5" s="4" t="s">
+        <v>3</v>
       </c>
       <c r="U5" s="1"/>
     </row>
     <row r="6" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
-      <c r="B6" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="9" t="s">
+      <c r="B6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="7">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="6">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="K6" s="6">
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="L6" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="10">
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="F6" s="9" t="s">
+      <c r="M6" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="N6" s="7">
+        <v>1.2E-2</v>
+      </c>
+      <c r="O6" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="9">
-        <v>0.20399999999999999</v>
-      </c>
-      <c r="I6" s="9" t="s">
+      <c r="P6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="J6" s="9" t="s">
+      <c r="Q6" s="6">
+        <v>0.35099999999999998</v>
+      </c>
+      <c r="R6" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="K6" s="9">
-        <v>0.78800000000000003</v>
-      </c>
-      <c r="L6" s="9" t="s">
+      <c r="S6" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="M6" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="N6" s="10">
-        <v>1.2E-2</v>
-      </c>
-      <c r="O6" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="P6" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q6" s="9">
-        <v>0.35099999999999998</v>
-      </c>
-      <c r="R6" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="S6" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="T6" s="9">
+      <c r="T6" s="6">
         <v>0.17399999999999999</v>
       </c>
       <c r="U6" s="1"/>
     </row>
     <row r="7" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
-      <c r="B7" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="9" t="s">
+      <c r="B7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="6">
+        <v>0.68700000000000006</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="6">
+        <v>0.216</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="K7" s="6">
+        <v>0.81699999999999995</v>
+      </c>
+      <c r="L7" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="M7" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="9">
-        <v>0.68700000000000006</v>
-      </c>
-      <c r="F7" s="9" t="s">
+      <c r="N7" s="6">
+        <v>0.34699999999999998</v>
+      </c>
+      <c r="O7" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="P7" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="9">
-        <v>0.216</v>
-      </c>
-      <c r="I7" s="9" t="s">
+      <c r="Q7" s="8">
+        <v>0.77</v>
+      </c>
+      <c r="R7" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="J7" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="K7" s="9">
-        <v>0.81699999999999995</v>
-      </c>
-      <c r="L7" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="M7" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="N7" s="9">
-        <v>0.34699999999999998</v>
-      </c>
-      <c r="O7" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="P7" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q7" s="11">
-        <v>0.77</v>
-      </c>
-      <c r="R7" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="S7" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="T7" s="11">
+      <c r="S7" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="T7" s="8">
         <v>0.73</v>
       </c>
       <c r="U7" s="1"/>
     </row>
     <row r="8" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
-      <c r="B8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="D8" s="9" t="s">
+      <c r="B8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="6">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="6">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" s="6">
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="L8" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="9">
-        <v>9.8000000000000004E-2</v>
-      </c>
-      <c r="F8" s="9" t="s">
+      <c r="M8" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="N8" s="6">
+        <v>0.995</v>
+      </c>
+      <c r="O8" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="H8" s="9">
-        <v>0.20399999999999999</v>
-      </c>
-      <c r="I8" s="9" t="s">
+      <c r="P8" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="J8" s="9" t="s">
+      <c r="Q8" s="6">
+        <v>0.496</v>
+      </c>
+      <c r="R8" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="K8" s="9">
-        <v>0.78800000000000003</v>
-      </c>
-      <c r="L8" s="9" t="s">
+      <c r="S8" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="M8" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="N8" s="9">
-        <v>0.995</v>
-      </c>
-      <c r="O8" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="P8" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q8" s="9">
-        <v>0.496</v>
-      </c>
-      <c r="R8" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="S8" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="T8" s="9">
+      <c r="T8" s="6">
         <v>0.64700000000000002</v>
       </c>
       <c r="U8" s="1"/>
     </row>
     <row r="9" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
-      <c r="B9" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="9" t="s">
+      <c r="B9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="6">
+        <v>0.76800000000000002</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9" s="6">
+        <v>0.216</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="J9" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="K9" s="6">
+        <v>0.113</v>
+      </c>
+      <c r="L9" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E9" s="9">
-        <v>0.76800000000000002</v>
-      </c>
-      <c r="F9" s="9" t="s">
+      <c r="M9" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="N9" s="6">
+        <v>0.34699999999999998</v>
+      </c>
+      <c r="O9" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="H9" s="9">
-        <v>0.216</v>
-      </c>
-      <c r="I9" s="9" t="s">
+      <c r="P9" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="J9" s="9" t="s">
+      <c r="Q9" s="6">
+        <v>0.35099999999999998</v>
+      </c>
+      <c r="R9" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="K9" s="9">
-        <v>0.113</v>
-      </c>
-      <c r="L9" s="9" t="s">
+      <c r="S9" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="M9" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="N9" s="9">
-        <v>0.34699999999999998</v>
-      </c>
-      <c r="O9" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="P9" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q9" s="9">
-        <v>0.35099999999999998</v>
-      </c>
-      <c r="R9" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="S9" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="T9" s="11">
+      <c r="T9" s="8">
         <v>0.76</v>
       </c>
       <c r="U9" s="1"/>
     </row>
     <row r="10" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
-      <c r="B10" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="J10" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="K10" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="L10" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="M10" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="N10" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="O10" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="P10" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q10" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="R10" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="S10" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="T10" s="11">
+      <c r="B10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="O10" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="P10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="R10" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="S10" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="T10" s="8">
         <v>0.73</v>
       </c>
       <c r="U10" s="1"/>
     </row>
     <row r="11" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
-      <c r="B11" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="9" t="s">
+      <c r="B11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="6">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="H11" s="6">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="K11" s="6">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="L11" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="M11" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="E11" s="9">
-        <v>9.8000000000000004E-2</v>
-      </c>
-      <c r="F11" s="9" t="s">
+      <c r="N11" s="7">
+        <v>2E-3</v>
+      </c>
+      <c r="O11" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="P11" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q11" s="6">
+        <v>0.35099999999999998</v>
+      </c>
+      <c r="R11" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="H11" s="9">
-        <v>0.26500000000000001</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="J11" s="9" t="s">
+      <c r="S11" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="K11" s="9">
-        <v>0.61299999999999999</v>
-      </c>
-      <c r="L11" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="M11" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="N11" s="10">
-        <v>2E-3</v>
-      </c>
-      <c r="O11" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="P11" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q11" s="9">
-        <v>0.35099999999999998</v>
-      </c>
-      <c r="R11" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="S11" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="T11" s="9">
+      <c r="T11" s="6">
         <v>0.28399999999999997</v>
       </c>
       <c r="U11" s="1"/>
     </row>
     <row r="12" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
-      <c r="B12" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="9" t="s">
+      <c r="B12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" s="6">
+        <v>0.68700000000000006</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="H12" s="6">
+        <v>0.54500000000000004</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="K12" s="6">
+        <v>0.92700000000000005</v>
+      </c>
+      <c r="L12" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="M12" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="E12" s="9">
-        <v>0.68700000000000006</v>
-      </c>
-      <c r="F12" s="9" t="s">
+      <c r="N12" s="6">
+        <v>0.622</v>
+      </c>
+      <c r="O12" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="P12" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="H12" s="9">
-        <v>0.54500000000000004</v>
-      </c>
-      <c r="I12" s="9" t="s">
+      <c r="Q12" s="6">
+        <v>0.89300000000000002</v>
+      </c>
+      <c r="R12" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="J12" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="K12" s="9">
-        <v>0.92700000000000005</v>
-      </c>
-      <c r="L12" s="9" t="s">
+      <c r="S12" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="M12" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="N12" s="9">
-        <v>0.622</v>
-      </c>
-      <c r="O12" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="P12" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q12" s="9">
-        <v>0.89300000000000002</v>
-      </c>
-      <c r="R12" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="S12" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="T12" s="11">
+      <c r="T12" s="8">
         <v>0.73</v>
       </c>
       <c r="U12" s="1"/>
     </row>
     <row r="13" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
-      <c r="B13" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="9" t="s">
+      <c r="B13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E13" s="6">
+        <v>0.125</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="H13" s="6">
+        <v>0.371</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="K13" s="6">
+        <v>0.112</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="M13" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="N13" s="6">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="O13" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="P13" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="E13" s="9">
-        <v>0.125</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="H13" s="9">
-        <v>0.371</v>
-      </c>
-      <c r="I13" s="9" t="s">
+      <c r="Q13" s="6">
+        <v>0.76200000000000001</v>
+      </c>
+      <c r="R13" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="S13" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="J13" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="K13" s="9">
-        <v>0.112</v>
-      </c>
-      <c r="L13" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="M13" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="N13" s="9">
-        <v>9.7000000000000003E-2</v>
-      </c>
-      <c r="O13" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="P13" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q13" s="9">
-        <v>0.76200000000000001</v>
-      </c>
-      <c r="R13" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="S13" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="T13" s="9">
+      <c r="T13" s="6">
         <v>0.48699999999999999</v>
       </c>
       <c r="U13" s="1"/>
     </row>
     <row r="14" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
-      <c r="B14" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="D14" s="12" t="s">
+      <c r="B14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="E14" s="9">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="H14" s="9">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="K14" s="9">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="L14" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="M14" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="N14" s="9">
+        <v>0.185</v>
+      </c>
+      <c r="O14" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="P14" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="E14" s="12">
-        <v>9.8000000000000004E-2</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="G14" s="12" t="s">
+      <c r="Q14" s="9">
+        <v>0.89300000000000002</v>
+      </c>
+      <c r="R14" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="S14" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="H14" s="12">
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="I14" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="J14" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="K14" s="12">
-        <v>0.23899999999999999</v>
-      </c>
-      <c r="L14" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="M14" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="N14" s="12">
-        <v>0.185</v>
-      </c>
-      <c r="O14" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="P14" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q14" s="12">
-        <v>0.89300000000000002</v>
-      </c>
-      <c r="R14" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="S14" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="T14" s="12">
+      <c r="T14" s="9">
         <v>0.17399999999999999</v>
       </c>
       <c r="U14" s="1"/>
